--- a/device_battery_data.xlsx
+++ b/device_battery_data.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SWARNAJIT ROY\Desktop\Projects\BatteryPrediction\Battery_Life_Prediction\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BDB398D-4664-4098-BE76-85685AD2813C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9000"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -27,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1814" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1815" uniqueCount="242">
   <si>
     <t>Device</t>
   </si>
@@ -751,18 +755,15 @@
   <si>
     <t>Huawei Watch GT 4</t>
   </si>
+  <si>
+    <t>Battery_Life</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -785,346 +786,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1147,251 +818,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1407,66 +836,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="distributed"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1751,37 +1136,37 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q601"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A510" workbookViewId="0">
-      <selection activeCell="O590" sqref="O590"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="55.1111111111111" customWidth="1"/>
-    <col min="2" max="2" width="14.6666666666667" customWidth="1"/>
-    <col min="3" max="3" width="14.8888888888889" customWidth="1"/>
-    <col min="4" max="4" width="14.1111111111111" customWidth="1"/>
-    <col min="5" max="5" width="24.3333333333333" customWidth="1"/>
-    <col min="6" max="6" width="17.7777777777778" customWidth="1"/>
-    <col min="7" max="7" width="23.3333333333333" customWidth="1"/>
-    <col min="8" max="8" width="17.1111111111111" customWidth="1"/>
-    <col min="9" max="9" width="14.7777777777778" customWidth="1"/>
-    <col min="10" max="10" width="9.55555555555556" customWidth="1"/>
-    <col min="11" max="11" width="10.2222222222222" customWidth="1"/>
-    <col min="12" max="12" width="15.1111111111111" customWidth="1"/>
-    <col min="13" max="13" width="18.6666666666667" customWidth="1"/>
-    <col min="14" max="14" width="17.2222222222222" customWidth="1"/>
+    <col min="1" max="1" width="55.109375" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" customWidth="1"/>
+    <col min="6" max="6" width="17.77734375" customWidth="1"/>
+    <col min="7" max="7" width="23.33203125" customWidth="1"/>
+    <col min="8" max="8" width="17.109375" customWidth="1"/>
+    <col min="9" max="9" width="14.77734375" customWidth="1"/>
+    <col min="10" max="10" width="9.5546875" customWidth="1"/>
+    <col min="11" max="11" width="10.21875" customWidth="1"/>
+    <col min="12" max="12" width="15.109375" customWidth="1"/>
+    <col min="13" max="13" width="18.6640625" customWidth="1"/>
+    <col min="14" max="14" width="17.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="29" customHeight="1" spans="1:17">
+    <row r="1" spans="1:17" ht="28.95" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1824,11 +1209,13 @@
       <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4"/>
+      <c r="O1" s="4" t="s">
+        <v>241</v>
+      </c>
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1872,7 +1259,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -1916,7 +1303,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1960,7 +1347,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -1992,7 +1379,7 @@
         <v>800</v>
       </c>
       <c r="K5" s="3">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L5" s="3">
         <v>2</v>
@@ -2004,7 +1391,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -2048,7 +1435,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -2092,7 +1479,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:17">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -2136,7 +1523,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -2168,7 +1555,7 @@
         <v>1000</v>
       </c>
       <c r="K9" s="3">
-        <v>1.16</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="L9" s="3">
         <v>1.52</v>
@@ -2180,7 +1567,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:17">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -2212,7 +1599,7 @@
         <v>1000</v>
       </c>
       <c r="K10" s="3">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="L10" s="3">
         <v>2.57</v>
@@ -2224,7 +1611,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:17">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -2235,7 +1622,7 @@
         <v>36740</v>
       </c>
       <c r="D11" s="3">
-        <v>4.69</v>
+        <v>4.6900000000000004</v>
       </c>
       <c r="E11" s="3">
         <v>5716</v>
@@ -2256,7 +1643,7 @@
         <v>1000</v>
       </c>
       <c r="K11" s="3">
-        <v>1.16</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="L11" s="3">
         <v>2.95</v>
@@ -2268,7 +1655,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:17">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -2300,7 +1687,7 @@
         <v>1000</v>
       </c>
       <c r="K12" s="3">
-        <v>2.22</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="L12" s="3">
         <v>3.11</v>
@@ -2312,7 +1699,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:17">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -2356,7 +1743,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:17">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -2400,7 +1787,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:17">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -2432,7 +1819,7 @@
         <v>1000</v>
       </c>
       <c r="K15" s="3">
-        <v>2.05</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="L15" s="3">
         <v>3.1</v>
@@ -2444,7 +1831,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:17">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -2479,7 +1866,7 @@
         <v>2.54</v>
       </c>
       <c r="L16" s="3">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="M16" s="3">
         <v>33</v>
@@ -2543,7 +1930,7 @@
         <v>33775</v>
       </c>
       <c r="D18" s="3">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="E18" s="3">
         <v>7897</v>
@@ -2611,7 +1998,7 @@
         <v>0.65</v>
       </c>
       <c r="L19" s="3">
-        <v>4.65</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="M19" s="3">
         <v>23</v>
@@ -2655,7 +2042,7 @@
         <v>2.78</v>
       </c>
       <c r="L20" s="3">
-        <v>4.64</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="M20" s="3">
         <v>27</v>
@@ -2831,7 +2218,7 @@
         <v>2.11</v>
       </c>
       <c r="L24" s="3">
-        <v>2.07</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="M24" s="3">
         <v>21</v>
@@ -2872,7 +2259,7 @@
         <v>1000</v>
       </c>
       <c r="K25" s="3">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="L25" s="3">
         <v>1.91</v>
@@ -2963,7 +2350,7 @@
         <v>2.69</v>
       </c>
       <c r="L27" s="3">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="M27" s="3">
         <v>35</v>
@@ -3180,10 +2567,10 @@
         <v>1000</v>
       </c>
       <c r="K32" s="3">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L32" s="3">
-        <v>2.01</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="M32" s="3">
         <v>22</v>
@@ -3268,7 +2655,7 @@
         <v>1000</v>
       </c>
       <c r="K34" s="3">
-        <v>2.18</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="L34" s="3">
         <v>1.73</v>
@@ -3400,7 +2787,7 @@
         <v>1000</v>
       </c>
       <c r="K37" s="3">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L37" s="3">
         <v>3.36</v>
@@ -3576,10 +2963,10 @@
         <v>1000</v>
       </c>
       <c r="K41" s="3">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="L41" s="3">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="M41" s="3">
         <v>33</v>
@@ -3620,7 +3007,7 @@
         <v>1000</v>
       </c>
       <c r="K42" s="3">
-        <v>2.51</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="L42" s="3">
         <v>3.01</v>
@@ -3664,7 +3051,7 @@
         <v>1000</v>
       </c>
       <c r="K43" s="3">
-        <v>2.45</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="L43" s="3">
         <v>4.46</v>
@@ -3711,7 +3098,7 @@
         <v>0.89</v>
       </c>
       <c r="L44" s="3">
-        <v>4.86</v>
+        <v>4.8600000000000003</v>
       </c>
       <c r="M44" s="3">
         <v>33</v>
@@ -3931,7 +3318,7 @@
         <v>0.75</v>
       </c>
       <c r="L49" s="3">
-        <v>1.09</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="M49" s="3">
         <v>31</v>
@@ -3951,7 +3338,7 @@
         <v>24989</v>
       </c>
       <c r="D50" s="3">
-        <v>8.79</v>
+        <v>8.7899999999999991</v>
       </c>
       <c r="E50" s="3">
         <v>13519</v>
@@ -3972,7 +3359,7 @@
         <v>1000</v>
       </c>
       <c r="K50" s="3">
-        <v>2.18</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="L50" s="3">
         <v>2.6</v>
@@ -4236,7 +3623,7 @@
         <v>1000</v>
       </c>
       <c r="K56" s="3">
-        <v>2.49</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="L56" s="3">
         <v>2.39</v>
@@ -4327,7 +3714,7 @@
         <v>2.65</v>
       </c>
       <c r="L58" s="3">
-        <v>2.22</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="M58" s="3">
         <v>26</v>
@@ -4412,7 +3799,7 @@
         <v>1000</v>
       </c>
       <c r="K60" s="3">
-        <v>2.45</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="L60" s="3">
         <v>1.9</v>
@@ -4676,7 +4063,7 @@
         <v>1000</v>
       </c>
       <c r="K66" s="3">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="L66" s="3">
         <v>2.72</v>
@@ -4699,7 +4086,7 @@
         <v>28208</v>
       </c>
       <c r="D67" s="3">
-        <v>9.28</v>
+        <v>9.2799999999999994</v>
       </c>
       <c r="E67" s="3">
         <v>957</v>
@@ -4899,7 +4286,7 @@
         <v>2.59</v>
       </c>
       <c r="L71" s="3">
-        <v>2.43</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="M71" s="3">
         <v>27</v>
@@ -5119,7 +4506,7 @@
         <v>2.7</v>
       </c>
       <c r="L76" s="3">
-        <v>1.16</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="M76" s="3">
         <v>30</v>
@@ -5424,7 +4811,7 @@
         <v>1000</v>
       </c>
       <c r="K83" s="3">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="L83" s="3">
         <v>2.13</v>
@@ -5600,7 +4987,7 @@
         <v>1000</v>
       </c>
       <c r="K87" s="3">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L87" s="3">
         <v>4.5</v>
@@ -5996,7 +5383,7 @@
         <v>1000</v>
       </c>
       <c r="K96" s="3">
-        <v>2.26</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="L96" s="3">
         <v>2.75</v>
@@ -6128,10 +5515,10 @@
         <v>1000</v>
       </c>
       <c r="K99" s="3">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="L99" s="3">
-        <v>4.06</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="M99" s="3">
         <v>25</v>
@@ -6216,10 +5603,10 @@
         <v>1000</v>
       </c>
       <c r="K101" s="3">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L101" s="3">
-        <v>2.32</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="M101" s="3">
         <v>20</v>
@@ -6239,7 +5626,7 @@
         <v>40603</v>
       </c>
       <c r="D102" s="3">
-        <v>9.55</v>
+        <v>9.5500000000000007</v>
       </c>
       <c r="E102" s="3">
         <v>4480</v>
@@ -6415,7 +5802,7 @@
         <v>42072</v>
       </c>
       <c r="D106" s="3">
-        <v>9.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="E106" s="3">
         <v>4796</v>
@@ -6459,7 +5846,7 @@
         <v>15343</v>
       </c>
       <c r="D107" s="3">
-        <v>5.02</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="E107" s="3">
         <v>8139</v>
@@ -6524,7 +5911,7 @@
         <v>1000</v>
       </c>
       <c r="K108" s="3">
-        <v>2.45</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="L108" s="3">
         <v>3.2</v>
@@ -6700,7 +6087,7 @@
         <v>1000</v>
       </c>
       <c r="K112" s="3">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="L112" s="3">
         <v>3.47</v>
@@ -6744,7 +6131,7 @@
         <v>1000</v>
       </c>
       <c r="K113" s="3">
-        <v>2.55</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="L113" s="3">
         <v>3.43</v>
@@ -6923,7 +6310,7 @@
         <v>2.52</v>
       </c>
       <c r="L117" s="3">
-        <v>4.94</v>
+        <v>4.9400000000000004</v>
       </c>
       <c r="M117" s="3">
         <v>29</v>
@@ -6967,7 +6354,7 @@
         <v>1.39</v>
       </c>
       <c r="L118" s="3">
-        <v>4.11</v>
+        <v>4.1100000000000003</v>
       </c>
       <c r="M118" s="3">
         <v>27</v>
@@ -7143,7 +6530,7 @@
         <v>1.95</v>
       </c>
       <c r="L122" s="3">
-        <v>4.15</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="M122" s="3">
         <v>32</v>
@@ -7427,7 +6814,7 @@
         <v>59600</v>
       </c>
       <c r="D129" s="3">
-        <v>4.94</v>
+        <v>4.9400000000000004</v>
       </c>
       <c r="E129" s="3">
         <v>12313</v>
@@ -7451,7 +6838,7 @@
         <v>2.27</v>
       </c>
       <c r="L129" s="3">
-        <v>4.98</v>
+        <v>4.9800000000000004</v>
       </c>
       <c r="M129" s="3">
         <v>35</v>
@@ -7495,7 +6882,7 @@
         <v>1.84</v>
       </c>
       <c r="L130" s="3">
-        <v>2.49</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="M130" s="3">
         <v>21</v>
@@ -7539,7 +6926,7 @@
         <v>1.59</v>
       </c>
       <c r="L131" s="3">
-        <v>4.86</v>
+        <v>4.8600000000000003</v>
       </c>
       <c r="M131" s="3">
         <v>28</v>
@@ -7627,7 +7014,7 @@
         <v>2.31</v>
       </c>
       <c r="L133" s="3">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="M133" s="3">
         <v>35</v>
@@ -7715,7 +7102,7 @@
         <v>2.89</v>
       </c>
       <c r="L135" s="3">
-        <v>2.01</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="M135" s="3">
         <v>27</v>
@@ -7756,10 +7143,10 @@
         <v>1000</v>
       </c>
       <c r="K136" s="3">
-        <v>1.13</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="L136" s="3">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="M136" s="3">
         <v>26</v>
@@ -7891,7 +7278,7 @@
         <v>1.67</v>
       </c>
       <c r="L139" s="3">
-        <v>2.47</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="M139" s="3">
         <v>25</v>
@@ -8815,7 +8202,7 @@
         <v>1.9</v>
       </c>
       <c r="L160" s="3">
-        <v>4.19</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="M160" s="3">
         <v>32</v>
@@ -9035,7 +8422,7 @@
         <v>2.75</v>
       </c>
       <c r="L165" s="3">
-        <v>4.94</v>
+        <v>4.9400000000000004</v>
       </c>
       <c r="M165" s="3">
         <v>20</v>
@@ -9055,7 +8442,7 @@
         <v>14434</v>
       </c>
       <c r="D166" s="3">
-        <v>4.14</v>
+        <v>4.1399999999999997</v>
       </c>
       <c r="E166" s="3">
         <v>4387</v>
@@ -9076,7 +8463,7 @@
         <v>1000</v>
       </c>
       <c r="K166" s="3">
-        <v>2.49</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="L166" s="3">
         <v>1.71</v>
@@ -9211,7 +8598,7 @@
         <v>2.77</v>
       </c>
       <c r="L169" s="3">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="M169" s="3">
         <v>32</v>
@@ -9296,7 +8683,7 @@
         <v>1000</v>
       </c>
       <c r="K171" s="3">
-        <v>1.13</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="L171" s="3">
         <v>4.79</v>
@@ -9431,7 +8818,7 @@
         <v>2.48</v>
       </c>
       <c r="L174" s="3">
-        <v>4.52</v>
+        <v>4.5199999999999996</v>
       </c>
       <c r="M174" s="3">
         <v>28</v>
@@ -9519,7 +8906,7 @@
         <v>1.72</v>
       </c>
       <c r="L176" s="3">
-        <v>4.15</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="M176" s="3">
         <v>25</v>
@@ -9604,7 +8991,7 @@
         <v>1000</v>
       </c>
       <c r="K178" s="3">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="L178" s="3">
         <v>4.34</v>
@@ -9651,7 +9038,7 @@
         <v>2.19</v>
       </c>
       <c r="L179" s="3">
-        <v>4.77</v>
+        <v>4.7699999999999996</v>
       </c>
       <c r="M179" s="3">
         <v>28</v>
@@ -9671,7 +9058,7 @@
         <v>36060</v>
       </c>
       <c r="D180" s="3">
-        <v>8.04</v>
+        <v>8.0399999999999991</v>
       </c>
       <c r="E180" s="3">
         <v>5506</v>
@@ -9715,7 +9102,7 @@
         <v>4849</v>
       </c>
       <c r="D181" s="3">
-        <v>9.22</v>
+        <v>9.2200000000000006</v>
       </c>
       <c r="E181" s="3">
         <v>8685</v>
@@ -9824,7 +9211,7 @@
         <v>1000</v>
       </c>
       <c r="K183" s="3">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L183" s="3">
         <v>1.46</v>
@@ -9868,7 +9255,7 @@
         <v>1000</v>
       </c>
       <c r="K184" s="3">
-        <v>1.09</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="L184" s="3">
         <v>3.08</v>
@@ -9935,7 +9322,7 @@
         <v>59062</v>
       </c>
       <c r="D186" s="3">
-        <v>8.22</v>
+        <v>8.2200000000000006</v>
       </c>
       <c r="E186" s="3">
         <v>10866</v>
@@ -10023,7 +9410,7 @@
         <v>58327</v>
       </c>
       <c r="D188" s="3">
-        <v>5.02</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="E188" s="3">
         <v>14332</v>
@@ -10047,7 +9434,7 @@
         <v>1.05</v>
       </c>
       <c r="L188" s="3">
-        <v>2.22</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="M188" s="3">
         <v>21</v>
@@ -10132,7 +9519,7 @@
         <v>1000</v>
       </c>
       <c r="K190" s="3">
-        <v>2.26</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="L190" s="3">
         <v>1.99</v>
@@ -10223,7 +9610,7 @@
         <v>1.57</v>
       </c>
       <c r="L192" s="3">
-        <v>4.06</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="M192" s="3">
         <v>29</v>
@@ -10232,7 +9619,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="193" spans="1:14">
+    <row r="193" spans="1:15">
       <c r="A193" t="s">
         <v>214</v>
       </c>
@@ -10243,7 +9630,7 @@
         <v>44434</v>
       </c>
       <c r="D193" s="3">
-        <v>4.65</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="E193" s="3">
         <v>11807</v>
@@ -10276,7 +9663,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="194" spans="1:14">
+    <row r="194" spans="1:15">
       <c r="A194" t="s">
         <v>215</v>
       </c>
@@ -10311,7 +9698,7 @@
         <v>2.35</v>
       </c>
       <c r="L194" s="3">
-        <v>4.73</v>
+        <v>4.7300000000000004</v>
       </c>
       <c r="M194" s="3">
         <v>30</v>
@@ -10320,7 +9707,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="195" spans="1:14">
+    <row r="195" spans="1:15">
       <c r="A195" t="s">
         <v>216</v>
       </c>
@@ -10364,7 +9751,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="196" spans="1:14">
+    <row r="196" spans="1:15">
       <c r="A196" t="s">
         <v>217</v>
       </c>
@@ -10408,7 +9795,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="197" spans="1:14">
+    <row r="197" spans="1:15">
       <c r="A197" t="s">
         <v>218</v>
       </c>
@@ -10452,7 +9839,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="198" spans="1:14">
+    <row r="198" spans="1:15">
       <c r="A198" t="s">
         <v>219</v>
       </c>
@@ -10484,7 +9871,7 @@
         <v>1000</v>
       </c>
       <c r="K198" s="3">
-        <v>2.43</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="L198" s="3">
         <v>2.74</v>
@@ -10496,7 +9883,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="199" spans="1:14">
+    <row r="199" spans="1:15">
       <c r="A199" t="s">
         <v>220</v>
       </c>
@@ -10531,7 +9918,7 @@
         <v>0.83</v>
       </c>
       <c r="L199" s="3">
-        <v>4.48</v>
+        <v>4.4800000000000004</v>
       </c>
       <c r="M199" s="3">
         <v>32</v>
@@ -10540,7 +9927,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="200" spans="1:14">
+    <row r="200" spans="1:15">
       <c r="A200" t="s">
         <v>221</v>
       </c>
@@ -10572,7 +9959,7 @@
         <v>1000</v>
       </c>
       <c r="K200" s="3">
-        <v>2.26</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="L200" s="3">
         <v>3.35</v>
@@ -10584,7 +9971,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="201" spans="1:14">
+    <row r="201" spans="1:15">
       <c r="A201" t="s">
         <v>222</v>
       </c>
@@ -10795,7 +10182,7 @@
         <v>800</v>
       </c>
       <c r="K205" s="6">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L205" s="6">
         <v>2</v>
@@ -10975,7 +10362,7 @@
         <v>1000</v>
       </c>
       <c r="K209" s="6">
-        <v>1.16</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="L209" s="6">
         <v>1.52</v>
@@ -11020,7 +10407,7 @@
         <v>1000</v>
       </c>
       <c r="K210" s="6">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="L210" s="6">
         <v>2.57</v>
@@ -11044,7 +10431,7 @@
         <v>36740</v>
       </c>
       <c r="D211" s="6">
-        <v>4.69</v>
+        <v>4.6900000000000004</v>
       </c>
       <c r="E211" s="6">
         <v>5716</v>
@@ -11065,7 +10452,7 @@
         <v>1000</v>
       </c>
       <c r="K211" s="6">
-        <v>1.16</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="L211" s="6">
         <v>2.95</v>
@@ -11110,7 +10497,7 @@
         <v>1000</v>
       </c>
       <c r="K212" s="6">
-        <v>2.22</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="L212" s="6">
         <v>3.11</v>
@@ -11245,7 +10632,7 @@
         <v>1000</v>
       </c>
       <c r="K215" s="6">
-        <v>2.05</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="L215" s="6">
         <v>3.1</v>
@@ -11293,7 +10680,7 @@
         <v>2.54</v>
       </c>
       <c r="L216" s="6">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="M216" s="6">
         <v>33</v>
@@ -11359,7 +10746,7 @@
         <v>33775</v>
       </c>
       <c r="D218" s="6">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="E218" s="6">
         <v>7897</v>
@@ -11428,7 +10815,7 @@
         <v>0.65</v>
       </c>
       <c r="L219" s="6">
-        <v>4.65</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="M219" s="6">
         <v>23</v>
@@ -11473,7 +10860,7 @@
         <v>2.78</v>
       </c>
       <c r="L220" s="6">
-        <v>4.64</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="M220" s="6">
         <v>27</v>
@@ -11653,7 +11040,7 @@
         <v>2.11</v>
       </c>
       <c r="L224" s="6">
-        <v>2.07</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="M224" s="6">
         <v>21</v>
@@ -11695,7 +11082,7 @@
         <v>1000</v>
       </c>
       <c r="K225" s="6">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="L225" s="6">
         <v>1.91</v>
@@ -11788,7 +11175,7 @@
         <v>2.69</v>
       </c>
       <c r="L227" s="6">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="M227" s="6">
         <v>35</v>
@@ -12010,10 +11397,10 @@
         <v>1000</v>
       </c>
       <c r="K232" s="6">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L232" s="6">
-        <v>2.01</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="M232" s="6">
         <v>22</v>
@@ -12100,7 +11487,7 @@
         <v>1000</v>
       </c>
       <c r="K234" s="6">
-        <v>2.18</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="L234" s="6">
         <v>1.73</v>
@@ -12235,7 +11622,7 @@
         <v>1000</v>
       </c>
       <c r="K237" s="6">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L237" s="6">
         <v>3.36</v>
@@ -12415,10 +11802,10 @@
         <v>1000</v>
       </c>
       <c r="K241" s="6">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="L241" s="6">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="M241" s="6">
         <v>33</v>
@@ -12460,7 +11847,7 @@
         <v>1000</v>
       </c>
       <c r="K242" s="6">
-        <v>2.51</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="L242" s="6">
         <v>3.01</v>
@@ -12505,7 +11892,7 @@
         <v>1000</v>
       </c>
       <c r="K243" s="6">
-        <v>2.45</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="L243" s="6">
         <v>4.46</v>
@@ -12553,7 +11940,7 @@
         <v>0.89</v>
       </c>
       <c r="L244" s="6">
-        <v>4.86</v>
+        <v>4.8600000000000003</v>
       </c>
       <c r="M244" s="6">
         <v>33</v>
@@ -12778,7 +12165,7 @@
         <v>0.75</v>
       </c>
       <c r="L249" s="6">
-        <v>1.09</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="M249" s="6">
         <v>31</v>
@@ -12799,7 +12186,7 @@
         <v>24989</v>
       </c>
       <c r="D250" s="6">
-        <v>8.79</v>
+        <v>8.7899999999999991</v>
       </c>
       <c r="E250" s="6">
         <v>13519</v>
@@ -12820,7 +12207,7 @@
         <v>1000</v>
       </c>
       <c r="K250" s="6">
-        <v>2.18</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="L250" s="6">
         <v>2.6</v>
@@ -13090,7 +12477,7 @@
         <v>1000</v>
       </c>
       <c r="K256" s="6">
-        <v>2.49</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="L256" s="6">
         <v>2.39</v>
@@ -13183,7 +12570,7 @@
         <v>2.65</v>
       </c>
       <c r="L258" s="6">
-        <v>2.22</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="M258" s="6">
         <v>26</v>
@@ -13270,7 +12657,7 @@
         <v>1000</v>
       </c>
       <c r="K260" s="6">
-        <v>2.45</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="L260" s="6">
         <v>1.9</v>
@@ -13540,7 +12927,7 @@
         <v>1000</v>
       </c>
       <c r="K266" s="6">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="L266" s="6">
         <v>2.72</v>
@@ -13564,7 +12951,7 @@
         <v>28208</v>
       </c>
       <c r="D267" s="6">
-        <v>9.28</v>
+        <v>9.2799999999999994</v>
       </c>
       <c r="E267" s="6">
         <v>957</v>
@@ -13768,7 +13155,7 @@
         <v>2.59</v>
       </c>
       <c r="L271" s="6">
-        <v>2.43</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="M271" s="6">
         <v>27</v>
@@ -13993,7 +13380,7 @@
         <v>2.7</v>
       </c>
       <c r="L276" s="6">
-        <v>1.16</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="M276" s="6">
         <v>30</v>
@@ -14305,7 +13692,7 @@
         <v>1000</v>
       </c>
       <c r="K283" s="6">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="L283" s="6">
         <v>2.13</v>
@@ -14485,7 +13872,7 @@
         <v>1000</v>
       </c>
       <c r="K287" s="6">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L287" s="6">
         <v>4.5</v>
@@ -14890,7 +14277,7 @@
         <v>1000</v>
       </c>
       <c r="K296" s="6">
-        <v>2.26</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="L296" s="6">
         <v>2.75</v>
@@ -15025,10 +14412,10 @@
         <v>1000</v>
       </c>
       <c r="K299" s="6">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="L299" s="6">
-        <v>4.06</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="M299" s="6">
         <v>25</v>
@@ -15115,10 +14502,10 @@
         <v>1000</v>
       </c>
       <c r="K301" s="6">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L301" s="6">
-        <v>2.32</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="M301" s="6">
         <v>20</v>
@@ -15139,7 +14526,7 @@
         <v>40603</v>
       </c>
       <c r="D302" s="6">
-        <v>9.55</v>
+        <v>9.5500000000000007</v>
       </c>
       <c r="E302" s="6">
         <v>4480</v>
@@ -15319,7 +14706,7 @@
         <v>42072</v>
       </c>
       <c r="D306" s="6">
-        <v>9.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="E306" s="6">
         <v>4796</v>
@@ -15364,7 +14751,7 @@
         <v>15343</v>
       </c>
       <c r="D307" s="6">
-        <v>5.02</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="E307" s="6">
         <v>8139</v>
@@ -15430,7 +14817,7 @@
         <v>1000</v>
       </c>
       <c r="K308" s="6">
-        <v>2.45</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="L308" s="6">
         <v>3.2</v>
@@ -15610,7 +14997,7 @@
         <v>1000</v>
       </c>
       <c r="K312" s="6">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="L312" s="6">
         <v>3.47</v>
@@ -15655,7 +15042,7 @@
         <v>1000</v>
       </c>
       <c r="K313" s="6">
-        <v>2.55</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="L313" s="6">
         <v>3.43</v>
@@ -15838,7 +15225,7 @@
         <v>2.52</v>
       </c>
       <c r="L317" s="6">
-        <v>4.94</v>
+        <v>4.9400000000000004</v>
       </c>
       <c r="M317" s="6">
         <v>29</v>
@@ -15883,7 +15270,7 @@
         <v>1.39</v>
       </c>
       <c r="L318" s="6">
-        <v>4.11</v>
+        <v>4.1100000000000003</v>
       </c>
       <c r="M318" s="6">
         <v>27</v>
@@ -16063,7 +15450,7 @@
         <v>1.95</v>
       </c>
       <c r="L322" s="6">
-        <v>4.15</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="M322" s="6">
         <v>32</v>
@@ -16354,7 +15741,7 @@
         <v>59600</v>
       </c>
       <c r="D329" s="6">
-        <v>4.94</v>
+        <v>4.9400000000000004</v>
       </c>
       <c r="E329" s="6">
         <v>12313</v>
@@ -16378,7 +15765,7 @@
         <v>2.27</v>
       </c>
       <c r="L329" s="6">
-        <v>4.98</v>
+        <v>4.9800000000000004</v>
       </c>
       <c r="M329" s="6">
         <v>35</v>
@@ -16423,7 +15810,7 @@
         <v>1.84</v>
       </c>
       <c r="L330" s="6">
-        <v>2.49</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="M330" s="6">
         <v>21</v>
@@ -16468,7 +15855,7 @@
         <v>1.59</v>
       </c>
       <c r="L331" s="6">
-        <v>4.86</v>
+        <v>4.8600000000000003</v>
       </c>
       <c r="M331" s="6">
         <v>28</v>
@@ -16558,7 +15945,7 @@
         <v>2.31</v>
       </c>
       <c r="L333" s="6">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="M333" s="6">
         <v>35</v>
@@ -16648,7 +16035,7 @@
         <v>2.89</v>
       </c>
       <c r="L335" s="6">
-        <v>2.01</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="M335" s="6">
         <v>27</v>
@@ -16690,10 +16077,10 @@
         <v>1000</v>
       </c>
       <c r="K336" s="6">
-        <v>1.13</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="L336" s="6">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="M336" s="6">
         <v>26</v>
@@ -16828,7 +16215,7 @@
         <v>1.67</v>
       </c>
       <c r="L339" s="6">
-        <v>2.47</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="M339" s="6">
         <v>25</v>
@@ -17773,7 +17160,7 @@
         <v>1.9</v>
       </c>
       <c r="L360" s="6">
-        <v>4.19</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="M360" s="6">
         <v>32</v>
@@ -17998,7 +17385,7 @@
         <v>2.75</v>
       </c>
       <c r="L365" s="6">
-        <v>4.94</v>
+        <v>4.9400000000000004</v>
       </c>
       <c r="M365" s="6">
         <v>20</v>
@@ -18019,7 +17406,7 @@
         <v>14434</v>
       </c>
       <c r="D366" s="6">
-        <v>4.14</v>
+        <v>4.1399999999999997</v>
       </c>
       <c r="E366" s="6">
         <v>4387</v>
@@ -18040,7 +17427,7 @@
         <v>1000</v>
       </c>
       <c r="K366" s="6">
-        <v>2.49</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="L366" s="6">
         <v>1.71</v>
@@ -18178,7 +17565,7 @@
         <v>2.77</v>
       </c>
       <c r="L369" s="6">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="M369" s="6">
         <v>32</v>
@@ -18265,7 +17652,7 @@
         <v>1000</v>
       </c>
       <c r="K371" s="6">
-        <v>1.13</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="L371" s="6">
         <v>4.79</v>
@@ -18403,7 +17790,7 @@
         <v>2.48</v>
       </c>
       <c r="L374" s="6">
-        <v>4.52</v>
+        <v>4.5199999999999996</v>
       </c>
       <c r="M374" s="6">
         <v>28</v>
@@ -18493,7 +17880,7 @@
         <v>1.72</v>
       </c>
       <c r="L376" s="6">
-        <v>4.15</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="M376" s="6">
         <v>25</v>
@@ -18580,7 +17967,7 @@
         <v>1000</v>
       </c>
       <c r="K378" s="6">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="L378" s="6">
         <v>4.34</v>
@@ -18628,7 +18015,7 @@
         <v>2.19</v>
       </c>
       <c r="L379" s="6">
-        <v>4.77</v>
+        <v>4.7699999999999996</v>
       </c>
       <c r="M379" s="6">
         <v>28</v>
@@ -18649,7 +18036,7 @@
         <v>36060</v>
       </c>
       <c r="D380" s="6">
-        <v>8.04</v>
+        <v>8.0399999999999991</v>
       </c>
       <c r="E380" s="6">
         <v>5506</v>
@@ -18694,7 +18081,7 @@
         <v>4849</v>
       </c>
       <c r="D381" s="6">
-        <v>9.22</v>
+        <v>9.2200000000000006</v>
       </c>
       <c r="E381" s="6">
         <v>8685</v>
@@ -18805,7 +18192,7 @@
         <v>1000</v>
       </c>
       <c r="K383" s="6">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L383" s="6">
         <v>1.46</v>
@@ -18850,7 +18237,7 @@
         <v>1000</v>
       </c>
       <c r="K384" s="6">
-        <v>1.09</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="L384" s="6">
         <v>3.08</v>
@@ -18919,7 +18306,7 @@
         <v>59062</v>
       </c>
       <c r="D386" s="6">
-        <v>8.22</v>
+        <v>8.2200000000000006</v>
       </c>
       <c r="E386" s="6">
         <v>10866</v>
@@ -19009,7 +18396,7 @@
         <v>58327</v>
       </c>
       <c r="D388" s="6">
-        <v>5.02</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="E388" s="6">
         <v>14332</v>
@@ -19033,7 +18420,7 @@
         <v>1.05</v>
       </c>
       <c r="L388" s="6">
-        <v>2.22</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="M388" s="6">
         <v>21</v>
@@ -19120,7 +18507,7 @@
         <v>1000</v>
       </c>
       <c r="K390" s="6">
-        <v>2.26</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="L390" s="6">
         <v>1.99</v>
@@ -19213,7 +18600,7 @@
         <v>1.57</v>
       </c>
       <c r="L392" s="6">
-        <v>4.06</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="M392" s="6">
         <v>29</v>
@@ -19234,7 +18621,7 @@
         <v>44434</v>
       </c>
       <c r="D393" s="6">
-        <v>4.65</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="E393" s="6">
         <v>11807</v>
@@ -19303,7 +18690,7 @@
         <v>2.35</v>
       </c>
       <c r="L394" s="6">
-        <v>4.73</v>
+        <v>4.7300000000000004</v>
       </c>
       <c r="M394" s="6">
         <v>30</v>
@@ -19480,7 +18867,7 @@
         <v>1000</v>
       </c>
       <c r="K398" s="6">
-        <v>2.43</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="L398" s="6">
         <v>2.74</v>
@@ -19528,7 +18915,7 @@
         <v>0.83</v>
       </c>
       <c r="L399" s="6">
-        <v>4.48</v>
+        <v>4.4800000000000004</v>
       </c>
       <c r="M399" s="6">
         <v>32</v>
@@ -19570,7 +18957,7 @@
         <v>1000</v>
       </c>
       <c r="K400" s="6">
-        <v>2.26</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="L400" s="6">
         <v>3.35</v>
@@ -19750,7 +19137,7 @@
         <v>800</v>
       </c>
       <c r="K404" s="6">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L404" s="6">
         <v>3</v>
@@ -20200,7 +19587,7 @@
         <v>1000</v>
       </c>
       <c r="K414" s="6">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L414" s="6">
         <v>2</v>
@@ -20449,7 +19836,7 @@
         <v>5068</v>
       </c>
       <c r="D420" s="6">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E420" s="6">
         <v>803</v>
@@ -20899,7 +20286,7 @@
         <v>4607</v>
       </c>
       <c r="D430" s="6">
-        <v>4.14</v>
+        <v>4.1399999999999997</v>
       </c>
       <c r="E430" s="6">
         <v>1973</v>
@@ -21280,7 +20667,7 @@
         <v>400</v>
       </c>
       <c r="K438" s="6">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="L438" s="6">
         <v>2</v>
@@ -21484,7 +20871,7 @@
         <v>5833</v>
       </c>
       <c r="D443" s="6">
-        <v>4.11</v>
+        <v>4.1100000000000003</v>
       </c>
       <c r="E443" s="6">
         <v>3463</v>
@@ -21550,7 +20937,7 @@
         <v>1000</v>
       </c>
       <c r="K444" s="6">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L444" s="6">
         <v>4</v>
@@ -21820,7 +21207,7 @@
         <v>500</v>
       </c>
       <c r="K450" s="6">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L450" s="6">
         <v>3</v>
@@ -21934,7 +21321,7 @@
         <v>5346</v>
       </c>
       <c r="D453" s="6">
-        <v>4.06</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="E453" s="6">
         <v>2086</v>
@@ -21979,7 +21366,7 @@
         <v>7311</v>
       </c>
       <c r="D454" s="6">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E454" s="6">
         <v>2858</v>
@@ -22114,7 +21501,7 @@
         <v>6123</v>
       </c>
       <c r="D457" s="6">
-        <v>4.15</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="E457" s="6">
         <v>311</v>
@@ -22204,7 +21591,7 @@
         <v>3724</v>
       </c>
       <c r="D459" s="6">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E459" s="6">
         <v>3239</v>
@@ -22294,7 +21681,7 @@
         <v>4134</v>
       </c>
       <c r="D461" s="6">
-        <v>4.19</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="E461" s="6">
         <v>2429</v>
@@ -22450,7 +21837,7 @@
         <v>1000</v>
       </c>
       <c r="K464" s="6">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="L464" s="6">
         <v>4</v>
@@ -22720,7 +22107,7 @@
         <v>500</v>
       </c>
       <c r="K470" s="6">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="L470" s="6">
         <v>4</v>
@@ -22855,7 +22242,7 @@
         <v>800</v>
       </c>
       <c r="K473" s="6">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="L473" s="6">
         <v>3</v>
@@ -22990,7 +22377,7 @@
         <v>1000</v>
       </c>
       <c r="K476" s="6">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L476" s="6">
         <v>4</v>
@@ -23689,7 +23076,7 @@
         <v>8941</v>
       </c>
       <c r="D492" s="6">
-        <v>4.02</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="E492" s="6">
         <v>3807</v>
@@ -23710,7 +23097,7 @@
         <v>500</v>
       </c>
       <c r="K492" s="6">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="L492" s="6">
         <v>4</v>
@@ -24115,7 +23502,7 @@
         <v>1000</v>
       </c>
       <c r="K501" s="6">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="L501" s="6">
         <v>2</v>
@@ -24610,7 +23997,7 @@
         <v>1000</v>
       </c>
       <c r="K512" s="6">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L512" s="6">
         <v>2</v>
@@ -25174,7 +24561,7 @@
         <v>5316</v>
       </c>
       <c r="D525" s="6">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E525" s="6">
         <v>174</v>
@@ -25195,7 +24582,7 @@
         <v>400</v>
       </c>
       <c r="K525" s="6">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="L525" s="6">
         <v>2</v>
@@ -25624,7 +25011,7 @@
         <v>487</v>
       </c>
       <c r="D535" s="6">
-        <v>4.02</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="E535" s="6">
         <v>357</v>
@@ -25690,7 +25077,7 @@
         <v>400</v>
       </c>
       <c r="K536" s="6">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L536" s="6">
         <v>3</v>
@@ -25960,7 +25347,7 @@
         <v>400</v>
       </c>
       <c r="K542" s="6">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L542" s="6">
         <v>1.5</v>
@@ -25984,7 +25371,7 @@
         <v>4376</v>
       </c>
       <c r="D543" s="6">
-        <v>4.02</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="E543" s="6">
         <v>4566</v>
@@ -26029,7 +25416,7 @@
         <v>1022</v>
       </c>
       <c r="D544" s="6">
-        <v>4.02</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="E544" s="6">
         <v>2731</v>
@@ -26119,7 +25506,7 @@
         <v>5809</v>
       </c>
       <c r="D546" s="6">
-        <v>4.11</v>
+        <v>4.1100000000000003</v>
       </c>
       <c r="E546" s="6">
         <v>1290</v>
@@ -26365,7 +25752,7 @@
         <v>1000</v>
       </c>
       <c r="K551" s="6">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="L551" s="6">
         <v>2</v>
@@ -26659,7 +26046,7 @@
         <v>4412</v>
       </c>
       <c r="D558" s="6">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E558" s="6">
         <v>887</v>
@@ -26770,7 +26157,7 @@
         <v>400</v>
       </c>
       <c r="K560" s="6">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="L560" s="6">
         <v>2</v>
@@ -27244,7 +26631,7 @@
         <v>2540</v>
       </c>
       <c r="D571" s="6">
-        <v>4.14</v>
+        <v>4.1399999999999997</v>
       </c>
       <c r="E571" s="6">
         <v>4515</v>
@@ -27379,7 +26766,7 @@
         <v>7302</v>
       </c>
       <c r="D574" s="6">
-        <v>4.14</v>
+        <v>4.1399999999999997</v>
       </c>
       <c r="E574" s="6">
         <v>3071</v>
@@ -27625,7 +27012,7 @@
         <v>400</v>
       </c>
       <c r="K579" s="6">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="L579" s="6">
         <v>2</v>
@@ -27850,7 +27237,7 @@
         <v>1000</v>
       </c>
       <c r="K584" s="6">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="L584" s="6">
         <v>2</v>
@@ -27919,7 +27306,7 @@
         <v>4771</v>
       </c>
       <c r="D586" s="6">
-        <v>4.06</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="E586" s="6">
         <v>3441</v>
@@ -27964,7 +27351,7 @@
         <v>2653</v>
       </c>
       <c r="D587" s="6">
-        <v>4.19</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="E587" s="6">
         <v>484</v>
@@ -28549,7 +27936,7 @@
         <v>3718</v>
       </c>
       <c r="D600" s="6">
-        <v>4.02</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="E600" s="6">
         <v>3869</v>
@@ -28594,7 +27981,7 @@
         <v>2932</v>
       </c>
       <c r="D601" s="6">
-        <v>4.19</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="E601" s="6">
         <v>2712</v>
@@ -28615,7 +28002,7 @@
         <v>400</v>
       </c>
       <c r="K601" s="6">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L601" s="6">
         <v>2</v>
@@ -28630,6 +28017,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>